--- a/webApiipAweb/main.xlsx
+++ b/webApiipAweb/main.xlsx
@@ -28,19 +28,100 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
+    <x:t>Тренировочный вариант №4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Чтение и запись многозначных чисел</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Решение уравнений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.02.2023 14:44:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.02.2023 14:46:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 20:59:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 22:36:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01:36:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 18:13:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 18:19:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:06:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 13:34:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 13:34:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 13:33:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2023 13:33:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.02.2023 14:08:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.02.2023 14:09:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.02.2023 13:33:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.02.2023 14:03:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:30:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.02.2023 13:18:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.02.2023 13:33:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:14:09</x:t>
+  </x:si>
+  <x:si>
     <x:t>Тренировочный вариант №1</x:t>
   </x:si>
   <x:si>
-    <x:t>I</x:t>
-  </x:si>
-  <x:si>
     <x:t>03.02.2023 9:37:04</x:t>
   </x:si>
   <x:si>
     <x:t>10.02.2023 13:10:23</x:t>
   </x:si>
   <x:si>
-    <x:t>7.03:33:19.0334900</x:t>
+    <x:t>7</x:t>
   </x:si>
   <x:si>
     <x:t>03.02.2023 8:42:29</x:t>
@@ -49,7 +130,7 @@
     <x:t>03.02.2023 8:42:47</x:t>
   </x:si>
   <x:si>
-    <x:t>00:00:18.8485699</x:t>
+    <x:t>00:00:18</x:t>
   </x:si>
   <x:si>
     <x:t>25.01.2023 9:36:35</x:t>
@@ -58,7 +139,7 @@
     <x:t>25.01.2023 10:45:07</x:t>
   </x:si>
   <x:si>
-    <x:t>01:08:31.2908650</x:t>
+    <x:t>01:08:31</x:t>
   </x:si>
   <x:si>
     <x:t>17.01.2023 19:46:16</x:t>
@@ -74,60 +155,6 @@
   </x:si>
   <x:si>
     <x:t>Тренировочный вариант №3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тренировочный вариант №4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Чтение и запись многозначных чисел</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Решение уравнений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:34:28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:34:55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:27.6562482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:33:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:33:44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:13.2111926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 14:08:17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 14:09:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:47.9440951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 13:33:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 14:03:56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:30:43.4912107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 13:18:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 13:33:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:14:09.7498368</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -160,12 +187,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFA500"/>
+        <x:fgColor rgb="FF008000"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF008000"/>
+        <x:fgColor rgb="FFFFA500"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -531,7 +558,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U23"/>
+  <x:dimension ref="A1:U27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -563,273 +590,336 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:21">
+      <x:c r="B5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
     <x:row r="6" spans="1:21">
-      <x:c r="C6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D6" s="1"/>
-      <x:c r="E6" s="1"/>
-      <x:c r="F6" s="1"/>
-      <x:c r="G6" s="1"/>
-      <x:c r="H6" s="1"/>
-      <x:c r="I6" s="1"/>
-      <x:c r="J6" s="1"/>
-      <x:c r="K6" s="1"/>
-      <x:c r="L6" s="1"/>
-      <x:c r="M6" s="1"/>
-      <x:c r="N6" s="1"/>
-      <x:c r="O6" s="1"/>
-      <x:c r="P6" s="1"/>
-      <x:c r="Q6" s="1"/>
-      <x:c r="R6" s="1"/>
-    </x:row>
-    <x:row r="7" spans="1:21">
-      <x:c r="D7" s="1"/>
-      <x:c r="E7" s="1"/>
-      <x:c r="F7" s="1"/>
-      <x:c r="G7" s="2"/>
-      <x:c r="H7" s="2"/>
-      <x:c r="I7" s="2"/>
-      <x:c r="J7" s="2"/>
-      <x:c r="K7" s="2"/>
-      <x:c r="L7" s="2"/>
-      <x:c r="M7" s="2"/>
-      <x:c r="N7" s="2"/>
-      <x:c r="O7" s="2"/>
-      <x:c r="P7" s="2"/>
-      <x:c r="Q7" s="2"/>
-      <x:c r="R7" s="2"/>
-      <x:c r="S7" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="T7" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:21">
+      <x:c r="C8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="U7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:21">
       <x:c r="D8" s="1"/>
-      <x:c r="E8" s="1"/>
+      <x:c r="E8" s="2"/>
       <x:c r="F8" s="1"/>
       <x:c r="G8" s="2"/>
       <x:c r="H8" s="2"/>
-      <x:c r="I8" s="2"/>
+      <x:c r="I8" s="1"/>
       <x:c r="J8" s="2"/>
-      <x:c r="K8" s="2"/>
-      <x:c r="L8" s="2"/>
-      <x:c r="M8" s="2"/>
-      <x:c r="N8" s="2"/>
-      <x:c r="O8" s="2"/>
-      <x:c r="P8" s="2"/>
-      <x:c r="Q8" s="2"/>
-      <x:c r="R8" s="2"/>
-      <x:c r="S8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="T8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="U8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="K8" s="1"/>
+      <x:c r="L8" s="1"/>
+      <x:c r="M8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="D9" s="1"/>
-      <x:c r="E9" s="1"/>
-      <x:c r="F9" s="2"/>
+      <x:c r="E9" s="2"/>
+      <x:c r="F9" s="1"/>
       <x:c r="G9" s="2"/>
       <x:c r="H9" s="2"/>
-      <x:c r="I9" s="2"/>
+      <x:c r="I9" s="1"/>
       <x:c r="J9" s="2"/>
-      <x:c r="K9" s="2"/>
-      <x:c r="L9" s="2"/>
-      <x:c r="M9" s="2"/>
-      <x:c r="N9" s="2"/>
-      <x:c r="O9" s="2"/>
-      <x:c r="P9" s="2"/>
-      <x:c r="Q9" s="2"/>
-      <x:c r="R9" s="2"/>
-      <x:c r="S9" s="0" t="s">
+      <x:c r="K9" s="3"/>
+      <x:c r="L9" s="3"/>
+      <x:c r="M9" s="3"/>
+      <x:c r="N9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:21">
+      <x:c r="D10" s="1"/>
+      <x:c r="E10" s="2"/>
+      <x:c r="F10" s="1"/>
+      <x:c r="G10" s="2"/>
+      <x:c r="H10" s="3"/>
+      <x:c r="I10" s="3"/>
+      <x:c r="J10" s="3"/>
+      <x:c r="K10" s="3"/>
+      <x:c r="L10" s="3"/>
+      <x:c r="M10" s="3"/>
+      <x:c r="N10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="T9" s="0" t="s">
+      <x:c r="P10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="U9" s="0" t="s">
+    </x:row>
+    <x:row r="11" spans="1:21">
+      <x:c r="D11" s="1"/>
+      <x:c r="E11" s="2"/>
+      <x:c r="F11" s="1"/>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3"/>
+      <x:c r="I11" s="3"/>
+      <x:c r="J11" s="3"/>
+      <x:c r="K11" s="3"/>
+      <x:c r="L11" s="3"/>
+      <x:c r="M11" s="3"/>
+      <x:c r="N11" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21">
-      <x:c r="D10" s="2"/>
-      <x:c r="E10" s="2"/>
-      <x:c r="F10" s="2"/>
-      <x:c r="G10" s="2"/>
-      <x:c r="H10" s="2"/>
-      <x:c r="I10" s="2"/>
-      <x:c r="J10" s="2"/>
-      <x:c r="K10" s="2"/>
-      <x:c r="L10" s="2"/>
-      <x:c r="M10" s="2"/>
-      <x:c r="N10" s="2"/>
-      <x:c r="O10" s="2"/>
-      <x:c r="P10" s="2"/>
-      <x:c r="Q10" s="2"/>
-      <x:c r="R10" s="2"/>
-      <x:c r="S10" s="0" t="s">
+      <x:c r="O11" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="T10" s="0" t="s">
+      <x:c r="P11" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="U10" s="0" t="s">
+    </x:row>
+    <x:row r="12" spans="1:21">
+      <x:c r="D12" s="1"/>
+      <x:c r="E12" s="2"/>
+      <x:c r="F12" s="1"/>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="3"/>
+      <x:c r="I12" s="3"/>
+      <x:c r="J12" s="3"/>
+      <x:c r="K12" s="3"/>
+      <x:c r="L12" s="3"/>
+      <x:c r="M12" s="3"/>
+      <x:c r="N12" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:21">
-      <x:c r="B12" s="0" t="s">
+      <x:c r="O12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
-      <x:c r="B13" s="0" t="s">
-        <x:v>19</x:v>
+      <x:c r="D13" s="1"/>
+      <x:c r="E13" s="2"/>
+      <x:c r="F13" s="1"/>
+      <x:c r="G13" s="3"/>
+      <x:c r="H13" s="3"/>
+      <x:c r="I13" s="3"/>
+      <x:c r="J13" s="3"/>
+      <x:c r="K13" s="3"/>
+      <x:c r="L13" s="3"/>
+      <x:c r="M13" s="3"/>
+      <x:c r="N13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
-      <x:c r="B14" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="D14" s="1"/>
+      <x:c r="E14" s="2"/>
+      <x:c r="F14" s="3"/>
+      <x:c r="G14" s="3"/>
+      <x:c r="H14" s="3"/>
+      <x:c r="I14" s="3"/>
+      <x:c r="J14" s="3"/>
+      <x:c r="K14" s="3"/>
+      <x:c r="L14" s="3"/>
+      <x:c r="M14" s="3"/>
+      <x:c r="N14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
-      <x:c r="B15" s="0" t="s">
-        <x:v>21</x:v>
+      <x:c r="D15" s="3"/>
+      <x:c r="E15" s="3"/>
+      <x:c r="F15" s="3"/>
+      <x:c r="G15" s="3"/>
+      <x:c r="H15" s="3"/>
+      <x:c r="I15" s="3"/>
+      <x:c r="J15" s="3"/>
+      <x:c r="K15" s="3"/>
+      <x:c r="L15" s="3"/>
+      <x:c r="M15" s="3"/>
+      <x:c r="N15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
-      <x:c r="B16" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="D16" s="3"/>
+      <x:c r="E16" s="3"/>
+      <x:c r="F16" s="3"/>
+      <x:c r="G16" s="3"/>
+      <x:c r="H16" s="3"/>
+      <x:c r="I16" s="3"/>
+      <x:c r="J16" s="3"/>
+      <x:c r="K16" s="3"/>
+      <x:c r="L16" s="3"/>
+      <x:c r="M16" s="3"/>
+      <x:c r="N16" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
-      <x:c r="C18" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D18" s="1"/>
-      <x:c r="E18" s="3"/>
-      <x:c r="F18" s="1"/>
-      <x:c r="G18" s="1"/>
-      <x:c r="H18" s="1"/>
-      <x:c r="I18" s="1"/>
-      <x:c r="J18" s="1"/>
-      <x:c r="K18" s="1"/>
-      <x:c r="L18" s="1"/>
-      <x:c r="M18" s="1"/>
-    </x:row>
-    <x:row r="19" spans="1:21">
-      <x:c r="D19" s="1"/>
-      <x:c r="E19" s="3"/>
-      <x:c r="F19" s="1"/>
-      <x:c r="G19" s="2"/>
-      <x:c r="H19" s="2"/>
-      <x:c r="I19" s="2"/>
-      <x:c r="J19" s="2"/>
-      <x:c r="K19" s="2"/>
-      <x:c r="L19" s="2"/>
-      <x:c r="M19" s="2"/>
-      <x:c r="N19" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O19" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P19" s="0" t="s">
-        <x:v>25</x:v>
+      <x:c r="B18" s="0" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
+      <x:c r="C20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D20" s="1"/>
-      <x:c r="E20" s="3"/>
+      <x:c r="E20" s="1"/>
       <x:c r="F20" s="1"/>
-      <x:c r="G20" s="2"/>
-      <x:c r="H20" s="2"/>
-      <x:c r="I20" s="2"/>
-      <x:c r="J20" s="2"/>
-      <x:c r="K20" s="2"/>
-      <x:c r="L20" s="2"/>
-      <x:c r="M20" s="2"/>
-      <x:c r="N20" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="O20" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P20" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="G20" s="1"/>
+      <x:c r="H20" s="1"/>
+      <x:c r="I20" s="1"/>
+      <x:c r="J20" s="1"/>
+      <x:c r="K20" s="1"/>
+      <x:c r="L20" s="1"/>
+      <x:c r="M20" s="1"/>
+      <x:c r="N20" s="1"/>
+      <x:c r="O20" s="1"/>
+      <x:c r="P20" s="1"/>
+      <x:c r="Q20" s="1"/>
+      <x:c r="R20" s="1"/>
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="D21" s="1"/>
-      <x:c r="E21" s="3"/>
-      <x:c r="F21" s="2"/>
-      <x:c r="G21" s="2"/>
-      <x:c r="H21" s="2"/>
-      <x:c r="I21" s="2"/>
-      <x:c r="J21" s="2"/>
-      <x:c r="K21" s="2"/>
-      <x:c r="L21" s="2"/>
-      <x:c r="M21" s="2"/>
-      <x:c r="N21" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="O21" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="P21" s="0" t="s">
-        <x:v>31</x:v>
+      <x:c r="E21" s="1"/>
+      <x:c r="F21" s="1"/>
+      <x:c r="G21" s="3"/>
+      <x:c r="H21" s="3"/>
+      <x:c r="I21" s="3"/>
+      <x:c r="J21" s="3"/>
+      <x:c r="K21" s="3"/>
+      <x:c r="L21" s="3"/>
+      <x:c r="M21" s="3"/>
+      <x:c r="N21" s="3"/>
+      <x:c r="O21" s="3"/>
+      <x:c r="P21" s="3"/>
+      <x:c r="Q21" s="3"/>
+      <x:c r="R21" s="3"/>
+      <x:c r="S21" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="T21" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U21" s="0" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
-      <x:c r="D22" s="2"/>
-      <x:c r="E22" s="2"/>
-      <x:c r="F22" s="2"/>
-      <x:c r="G22" s="2"/>
-      <x:c r="H22" s="2"/>
-      <x:c r="I22" s="2"/>
-      <x:c r="J22" s="2"/>
-      <x:c r="K22" s="2"/>
-      <x:c r="L22" s="2"/>
-      <x:c r="M22" s="2"/>
-      <x:c r="N22" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="O22" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P22" s="0" t="s">
-        <x:v>34</x:v>
+      <x:c r="D22" s="1"/>
+      <x:c r="E22" s="1"/>
+      <x:c r="F22" s="1"/>
+      <x:c r="G22" s="3"/>
+      <x:c r="H22" s="3"/>
+      <x:c r="I22" s="3"/>
+      <x:c r="J22" s="3"/>
+      <x:c r="K22" s="3"/>
+      <x:c r="L22" s="3"/>
+      <x:c r="M22" s="3"/>
+      <x:c r="N22" s="3"/>
+      <x:c r="O22" s="3"/>
+      <x:c r="P22" s="3"/>
+      <x:c r="Q22" s="3"/>
+      <x:c r="R22" s="3"/>
+      <x:c r="S22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="T22" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="U22" s="0" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
-      <x:c r="D23" s="2"/>
-      <x:c r="E23" s="2"/>
-      <x:c r="F23" s="2"/>
-      <x:c r="G23" s="2"/>
-      <x:c r="H23" s="2"/>
-      <x:c r="I23" s="2"/>
-      <x:c r="J23" s="2"/>
-      <x:c r="K23" s="2"/>
-      <x:c r="L23" s="2"/>
-      <x:c r="M23" s="2"/>
-      <x:c r="N23" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="O23" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="P23" s="0" t="s">
-        <x:v>37</x:v>
+      <x:c r="D23" s="1"/>
+      <x:c r="E23" s="1"/>
+      <x:c r="F23" s="3"/>
+      <x:c r="G23" s="3"/>
+      <x:c r="H23" s="3"/>
+      <x:c r="I23" s="3"/>
+      <x:c r="J23" s="3"/>
+      <x:c r="K23" s="3"/>
+      <x:c r="L23" s="3"/>
+      <x:c r="M23" s="3"/>
+      <x:c r="N23" s="3"/>
+      <x:c r="O23" s="3"/>
+      <x:c r="P23" s="3"/>
+      <x:c r="Q23" s="3"/>
+      <x:c r="R23" s="3"/>
+      <x:c r="S23" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="T23" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U23" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:21">
+      <x:c r="D24" s="3"/>
+      <x:c r="E24" s="3"/>
+      <x:c r="F24" s="3"/>
+      <x:c r="G24" s="3"/>
+      <x:c r="H24" s="3"/>
+      <x:c r="I24" s="3"/>
+      <x:c r="J24" s="3"/>
+      <x:c r="K24" s="3"/>
+      <x:c r="L24" s="3"/>
+      <x:c r="M24" s="3"/>
+      <x:c r="N24" s="3"/>
+      <x:c r="O24" s="3"/>
+      <x:c r="P24" s="3"/>
+      <x:c r="Q24" s="3"/>
+      <x:c r="R24" s="3"/>
+      <x:c r="S24" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T24" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U24" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:21">
+      <x:c r="B26" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:21">
+      <x:c r="B27" s="0" t="s">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/webApiipAweb/main.xlsx
+++ b/webApiipAweb/main.xlsx
@@ -19,142 +19,709 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Саракташский район</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Муниципальное Общеобразовательное Бюджетное Учреждение "Кабановская Основная Общеобразовательная Школа" Саракташского Района Оренбургской Области</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тренировочный вариант №4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Чтение и запись многозначных чисел</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Решение уравнений</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.02.2023 14:44:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.02.2023 14:46:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:01:29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 20:59:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 22:36:14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01:36:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 18:13:14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 18:19:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:06:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:34:28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:34:55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:33:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2023 13:33:44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 14:08:17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 14:09:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 13:33:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 14:03:56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:30:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 13:18:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.02.2023 13:33:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:14:09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тренировочный вариант №1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.02.2023 9:37:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.02.2023 13:10:23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.02.2023 8:42:29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.02.2023 8:42:47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:00:18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.01.2023 9:36:35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.01.2023 10:45:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01:08:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.01.2023 19:46:16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.01.2023 20:46:16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тренировочный вариант №2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тренировочный вариант №3</x:t>
+    <x:t>город Оренбург</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Муниципальное Общеобразовательное Автономное Учреждение "Лицей № 5 Имени Героя Российской Федерации А.Ж. Зеленко"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4К</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тренировoчный вариант №1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:23:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:36:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:13:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:20:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:22:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:10:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:58:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:48:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:29:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:59:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:30:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:25:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:29:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:03:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:21:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:49:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:28:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:15:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:21:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:06:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:19:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 18:04:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:44:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:35:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:42:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:07:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:22:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:35:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:13:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:12:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:22:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:10:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:18:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:56:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:37:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:38:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:56:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:17:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:20:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:38:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:14:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:50:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:36:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 16:53:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:03:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:09:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 16:51:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 16:53:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 16:49:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 16:50:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:49:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:15:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:49:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:34:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:13:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:15:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:39:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:51:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:11:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:15:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:39:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:23:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:09:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:53:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:43:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:26:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:49:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:22:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:24:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:26:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:39:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 18:17:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:37:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:46:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:49:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:42:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:46:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:04:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:21:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:42:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:21:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:09:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:21:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:11:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:15:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:35:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:19:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:13:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:14:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:19:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:48:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:29:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 17:19:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 18:07:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:47:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4Д</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:17:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:46:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:28:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:30:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:42:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:11:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:28:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:30:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:02:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:17:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:28:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:11:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:20:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:56:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:36:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:19:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:49:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:30:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:19:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:41:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:21:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:18:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:19:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:01:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:12:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:37:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:25:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 11:24:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.02.2023 11:24:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:19:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:47:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:28:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:11:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:18:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:06:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:40:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 13:45:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01:05:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:17:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:10:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:45:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:34:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:16:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:38:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:21:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:13:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:46:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:33:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:39:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:58:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:19:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:42:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:17:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:48:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:30:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:13:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:45:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:32:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:15:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:39:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:24:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:15:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 13:00:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:44:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:19:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:45:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:26:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:34:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:39:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:04:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:16:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:34:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:18:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:55:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:59:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:04:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:44:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:54:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:10:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:08:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:53:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:44:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ученик-031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 12:19:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.02.2023 13:09:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:49:57</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,12 +749,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
+        <x:fgColor rgb="FF008000"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF008000"/>
+        <x:fgColor rgb="FFFF0000"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -558,7 +1125,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U27"/>
+  <x:dimension ref="A1:U196"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -590,255 +1157,247 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:21">
-      <x:c r="B5" s="0" t="s">
+    <x:row r="6" spans="1:21">
+      <x:c r="C6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:21">
-      <x:c r="B6" s="0" t="s">
+      <x:c r="D6" s="1"/>
+      <x:c r="E6" s="1"/>
+      <x:c r="F6" s="1"/>
+      <x:c r="G6" s="2"/>
+      <x:c r="H6" s="1"/>
+      <x:c r="I6" s="1"/>
+      <x:c r="J6" s="2"/>
+      <x:c r="K6" s="1"/>
+      <x:c r="L6" s="1"/>
+      <x:c r="M6" s="1"/>
+      <x:c r="N6" s="2"/>
+      <x:c r="O6" s="1"/>
+      <x:c r="P6" s="1"/>
+      <x:c r="Q6" s="1"/>
+      <x:c r="R6" s="1"/>
+    </x:row>
+    <x:row r="7" spans="1:21">
+      <x:c r="D7" s="1"/>
+      <x:c r="E7" s="1"/>
+      <x:c r="F7" s="1"/>
+      <x:c r="G7" s="2"/>
+      <x:c r="H7" s="1"/>
+      <x:c r="I7" s="1"/>
+      <x:c r="J7" s="2"/>
+      <x:c r="K7" s="1"/>
+      <x:c r="L7" s="1"/>
+      <x:c r="M7" s="1"/>
+      <x:c r="N7" s="3"/>
+      <x:c r="O7" s="1"/>
+      <x:c r="P7" s="1"/>
+      <x:c r="Q7" s="1"/>
+      <x:c r="R7" s="1"/>
+      <x:c r="S7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="T7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="U7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
-      <x:c r="C8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="D8" s="1"/>
-      <x:c r="E8" s="2"/>
+      <x:c r="E8" s="1"/>
       <x:c r="F8" s="1"/>
       <x:c r="G8" s="2"/>
-      <x:c r="H8" s="2"/>
-      <x:c r="I8" s="1"/>
-      <x:c r="J8" s="2"/>
-      <x:c r="K8" s="1"/>
-      <x:c r="L8" s="1"/>
-      <x:c r="M8" s="1"/>
-    </x:row>
-    <x:row r="9" spans="1:21">
-      <x:c r="D9" s="1"/>
-      <x:c r="E9" s="2"/>
-      <x:c r="F9" s="1"/>
-      <x:c r="G9" s="2"/>
-      <x:c r="H9" s="2"/>
-      <x:c r="I9" s="1"/>
-      <x:c r="J9" s="2"/>
-      <x:c r="K9" s="3"/>
-      <x:c r="L9" s="3"/>
-      <x:c r="M9" s="3"/>
-      <x:c r="N9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O9" s="0" t="s">
+      <x:c r="H8" s="3"/>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="3"/>
+      <x:c r="K8" s="3"/>
+      <x:c r="L8" s="3"/>
+      <x:c r="M8" s="3"/>
+      <x:c r="N8" s="3"/>
+      <x:c r="O8" s="3"/>
+      <x:c r="P8" s="3"/>
+      <x:c r="Q8" s="3"/>
+      <x:c r="R8" s="3"/>
+      <x:c r="S8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="P9" s="0" t="s">
+      <x:c r="T8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21">
-      <x:c r="D10" s="1"/>
-      <x:c r="E10" s="2"/>
-      <x:c r="F10" s="1"/>
-      <x:c r="G10" s="2"/>
-      <x:c r="H10" s="3"/>
-      <x:c r="I10" s="3"/>
-      <x:c r="J10" s="3"/>
-      <x:c r="K10" s="3"/>
-      <x:c r="L10" s="3"/>
-      <x:c r="M10" s="3"/>
-      <x:c r="N10" s="0" t="s">
+      <x:c r="U8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="O10" s="0" t="s">
+    </x:row>
+    <x:row r="11" spans="1:21">
+      <x:c r="C11" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="P10" s="0" t="s">
+      <x:c r="D11" s="2"/>
+      <x:c r="E11" s="2"/>
+      <x:c r="F11" s="2"/>
+      <x:c r="G11" s="1"/>
+      <x:c r="H11" s="1"/>
+      <x:c r="I11" s="1"/>
+      <x:c r="J11" s="1"/>
+      <x:c r="K11" s="2"/>
+      <x:c r="L11" s="1"/>
+      <x:c r="M11" s="2"/>
+      <x:c r="N11" s="2"/>
+      <x:c r="O11" s="1"/>
+      <x:c r="P11" s="2"/>
+      <x:c r="Q11" s="2"/>
+      <x:c r="R11" s="1"/>
+    </x:row>
+    <x:row r="12" spans="1:21">
+      <x:c r="D12" s="2"/>
+      <x:c r="E12" s="2"/>
+      <x:c r="F12" s="2"/>
+      <x:c r="G12" s="1"/>
+      <x:c r="H12" s="1"/>
+      <x:c r="I12" s="1"/>
+      <x:c r="J12" s="1"/>
+      <x:c r="K12" s="3"/>
+      <x:c r="L12" s="1"/>
+      <x:c r="M12" s="3"/>
+      <x:c r="N12" s="3"/>
+      <x:c r="O12" s="1"/>
+      <x:c r="P12" s="2"/>
+      <x:c r="Q12" s="3"/>
+      <x:c r="R12" s="1"/>
+      <x:c r="S12" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:21">
-      <x:c r="D11" s="1"/>
-      <x:c r="E11" s="2"/>
-      <x:c r="F11" s="1"/>
-      <x:c r="G11" s="3"/>
-      <x:c r="H11" s="3"/>
-      <x:c r="I11" s="3"/>
-      <x:c r="J11" s="3"/>
-      <x:c r="K11" s="3"/>
-      <x:c r="L11" s="3"/>
-      <x:c r="M11" s="3"/>
-      <x:c r="N11" s="0" t="s">
+      <x:c r="T12" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="O11" s="0" t="s">
+      <x:c r="U12" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="P11" s="0" t="s">
+    </x:row>
+    <x:row r="15" spans="1:21">
+      <x:c r="C15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:21">
-      <x:c r="D12" s="1"/>
-      <x:c r="E12" s="2"/>
-      <x:c r="F12" s="1"/>
-      <x:c r="G12" s="3"/>
-      <x:c r="H12" s="3"/>
-      <x:c r="I12" s="3"/>
-      <x:c r="J12" s="3"/>
-      <x:c r="K12" s="3"/>
-      <x:c r="L12" s="3"/>
-      <x:c r="M12" s="3"/>
-      <x:c r="N12" s="0" t="s">
+      <x:c r="D15" s="2"/>
+      <x:c r="E15" s="1"/>
+      <x:c r="F15" s="1"/>
+      <x:c r="G15" s="1"/>
+      <x:c r="H15" s="2"/>
+      <x:c r="I15" s="2"/>
+      <x:c r="J15" s="1"/>
+      <x:c r="K15" s="1"/>
+      <x:c r="L15" s="1"/>
+      <x:c r="M15" s="1"/>
+      <x:c r="N15" s="2"/>
+      <x:c r="O15" s="2"/>
+      <x:c r="P15" s="1"/>
+      <x:c r="Q15" s="1"/>
+      <x:c r="R15" s="1"/>
+    </x:row>
+    <x:row r="16" spans="1:21">
+      <x:c r="D16" s="2"/>
+      <x:c r="E16" s="1"/>
+      <x:c r="F16" s="1"/>
+      <x:c r="G16" s="1"/>
+      <x:c r="H16" s="2"/>
+      <x:c r="I16" s="2"/>
+      <x:c r="J16" s="1"/>
+      <x:c r="K16" s="1"/>
+      <x:c r="L16" s="1"/>
+      <x:c r="M16" s="1"/>
+      <x:c r="N16" s="2"/>
+      <x:c r="O16" s="2"/>
+      <x:c r="P16" s="1"/>
+      <x:c r="Q16" s="1"/>
+      <x:c r="R16" s="1"/>
+      <x:c r="S16" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="O12" s="0" t="s">
+      <x:c r="T16" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="P12" s="0" t="s">
+      <x:c r="U16" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:21">
-      <x:c r="D13" s="1"/>
-      <x:c r="E13" s="2"/>
-      <x:c r="F13" s="1"/>
-      <x:c r="G13" s="3"/>
-      <x:c r="H13" s="3"/>
-      <x:c r="I13" s="3"/>
-      <x:c r="J13" s="3"/>
-      <x:c r="K13" s="3"/>
-      <x:c r="L13" s="3"/>
-      <x:c r="M13" s="3"/>
-      <x:c r="N13" s="0" t="s">
+    <x:row r="17" spans="1:21">
+      <x:c r="D17" s="2"/>
+      <x:c r="E17" s="3"/>
+      <x:c r="F17" s="3"/>
+      <x:c r="G17" s="3"/>
+      <x:c r="H17" s="3"/>
+      <x:c r="I17" s="3"/>
+      <x:c r="J17" s="3"/>
+      <x:c r="K17" s="3"/>
+      <x:c r="L17" s="3"/>
+      <x:c r="M17" s="3"/>
+      <x:c r="N17" s="3"/>
+      <x:c r="O17" s="3"/>
+      <x:c r="P17" s="3"/>
+      <x:c r="Q17" s="3"/>
+      <x:c r="R17" s="3"/>
+      <x:c r="S17" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="O13" s="0" t="s">
+      <x:c r="T17" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="P13" s="0" t="s">
+      <x:c r="U17" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:21">
-      <x:c r="D14" s="1"/>
-      <x:c r="E14" s="2"/>
-      <x:c r="F14" s="3"/>
-      <x:c r="G14" s="3"/>
-      <x:c r="H14" s="3"/>
-      <x:c r="I14" s="3"/>
-      <x:c r="J14" s="3"/>
-      <x:c r="K14" s="3"/>
-      <x:c r="L14" s="3"/>
-      <x:c r="M14" s="3"/>
-      <x:c r="N14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O14" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P14" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:21">
-      <x:c r="D15" s="3"/>
-      <x:c r="E15" s="3"/>
-      <x:c r="F15" s="3"/>
-      <x:c r="G15" s="3"/>
-      <x:c r="H15" s="3"/>
-      <x:c r="I15" s="3"/>
-      <x:c r="J15" s="3"/>
-      <x:c r="K15" s="3"/>
-      <x:c r="L15" s="3"/>
-      <x:c r="M15" s="3"/>
-      <x:c r="N15" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="O15" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P15" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:21">
-      <x:c r="D16" s="3"/>
-      <x:c r="E16" s="3"/>
-      <x:c r="F16" s="3"/>
-      <x:c r="G16" s="3"/>
-      <x:c r="H16" s="3"/>
-      <x:c r="I16" s="3"/>
-      <x:c r="J16" s="3"/>
-      <x:c r="K16" s="3"/>
-      <x:c r="L16" s="3"/>
-      <x:c r="M16" s="3"/>
-      <x:c r="N16" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="O16" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="P16" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:21">
-      <x:c r="B18" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="C20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D20" s="1"/>
       <x:c r="E20" s="1"/>
       <x:c r="F20" s="1"/>
-      <x:c r="G20" s="1"/>
+      <x:c r="G20" s="2"/>
       <x:c r="H20" s="1"/>
-      <x:c r="I20" s="1"/>
-      <x:c r="J20" s="1"/>
-      <x:c r="K20" s="1"/>
+      <x:c r="I20" s="2"/>
+      <x:c r="J20" s="2"/>
+      <x:c r="K20" s="2"/>
       <x:c r="L20" s="1"/>
-      <x:c r="M20" s="1"/>
-      <x:c r="N20" s="1"/>
+      <x:c r="M20" s="2"/>
+      <x:c r="N20" s="2"/>
       <x:c r="O20" s="1"/>
       <x:c r="P20" s="1"/>
-      <x:c r="Q20" s="1"/>
+      <x:c r="Q20" s="2"/>
       <x:c r="R20" s="1"/>
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="D21" s="1"/>
       <x:c r="E21" s="1"/>
       <x:c r="F21" s="1"/>
-      <x:c r="G21" s="3"/>
-      <x:c r="H21" s="3"/>
-      <x:c r="I21" s="3"/>
-      <x:c r="J21" s="3"/>
+      <x:c r="G21" s="2"/>
+      <x:c r="H21" s="1"/>
+      <x:c r="I21" s="2"/>
+      <x:c r="J21" s="2"/>
       <x:c r="K21" s="3"/>
-      <x:c r="L21" s="3"/>
+      <x:c r="L21" s="1"/>
       <x:c r="M21" s="3"/>
       <x:c r="N21" s="3"/>
-      <x:c r="O21" s="3"/>
-      <x:c r="P21" s="3"/>
+      <x:c r="O21" s="1"/>
+      <x:c r="P21" s="1"/>
       <x:c r="Q21" s="3"/>
-      <x:c r="R21" s="3"/>
+      <x:c r="R21" s="1"/>
       <x:c r="S21" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="T21" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U21" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="D22" s="1"/>
       <x:c r="E22" s="1"/>
       <x:c r="F22" s="1"/>
-      <x:c r="G22" s="3"/>
+      <x:c r="G22" s="2"/>
       <x:c r="H22" s="3"/>
       <x:c r="I22" s="3"/>
       <x:c r="J22" s="3"/>
@@ -851,75 +1410,2183 @@
       <x:c r="Q22" s="3"/>
       <x:c r="R22" s="3"/>
       <x:c r="S22" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="T22" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U22" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:21">
+      <x:c r="C25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D25" s="1"/>
+      <x:c r="E25" s="1"/>
+      <x:c r="F25" s="1"/>
+      <x:c r="G25" s="1"/>
+      <x:c r="H25" s="1"/>
+      <x:c r="I25" s="1"/>
+      <x:c r="J25" s="1"/>
+      <x:c r="K25" s="1"/>
+      <x:c r="L25" s="1"/>
+      <x:c r="M25" s="1"/>
+      <x:c r="N25" s="2"/>
+      <x:c r="O25" s="1"/>
+      <x:c r="P25" s="1"/>
+      <x:c r="Q25" s="1"/>
+      <x:c r="R25" s="1"/>
+    </x:row>
+    <x:row r="26" spans="1:21">
+      <x:c r="D26" s="1"/>
+      <x:c r="E26" s="1"/>
+      <x:c r="F26" s="1"/>
+      <x:c r="G26" s="1"/>
+      <x:c r="H26" s="1"/>
+      <x:c r="I26" s="1"/>
+      <x:c r="J26" s="1"/>
+      <x:c r="K26" s="1"/>
+      <x:c r="L26" s="1"/>
+      <x:c r="M26" s="1"/>
+      <x:c r="N26" s="2"/>
+      <x:c r="O26" s="1"/>
+      <x:c r="P26" s="1"/>
+      <x:c r="Q26" s="1"/>
+      <x:c r="R26" s="1"/>
+      <x:c r="S26" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="T26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U26" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:21">
+      <x:c r="C29" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D29" s="1"/>
+      <x:c r="E29" s="1"/>
+      <x:c r="F29" s="1"/>
+      <x:c r="G29" s="1"/>
+      <x:c r="H29" s="1"/>
+      <x:c r="I29" s="2"/>
+      <x:c r="J29" s="1"/>
+      <x:c r="K29" s="1"/>
+      <x:c r="L29" s="1"/>
+      <x:c r="M29" s="1"/>
+      <x:c r="N29" s="2"/>
+      <x:c r="O29" s="2"/>
+      <x:c r="P29" s="1"/>
+      <x:c r="Q29" s="1"/>
+      <x:c r="R29" s="1"/>
+    </x:row>
+    <x:row r="30" spans="1:21">
+      <x:c r="D30" s="1"/>
+      <x:c r="E30" s="1"/>
+      <x:c r="F30" s="1"/>
+      <x:c r="G30" s="1"/>
+      <x:c r="H30" s="1"/>
+      <x:c r="I30" s="2"/>
+      <x:c r="J30" s="1"/>
+      <x:c r="K30" s="1"/>
+      <x:c r="L30" s="1"/>
+      <x:c r="M30" s="1"/>
+      <x:c r="N30" s="2"/>
+      <x:c r="O30" s="2"/>
+      <x:c r="P30" s="1"/>
+      <x:c r="Q30" s="1"/>
+      <x:c r="R30" s="1"/>
+      <x:c r="S30" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="T30" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="T22" s="0" t="s">
+      <x:c r="U30" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="U22" s="0" t="s">
+    </x:row>
+    <x:row r="31" spans="1:21">
+      <x:c r="D31" s="1"/>
+      <x:c r="E31" s="1"/>
+      <x:c r="F31" s="1"/>
+      <x:c r="G31" s="1"/>
+      <x:c r="H31" s="1"/>
+      <x:c r="I31" s="2"/>
+      <x:c r="J31" s="1"/>
+      <x:c r="K31" s="1"/>
+      <x:c r="L31" s="1"/>
+      <x:c r="M31" s="3"/>
+      <x:c r="N31" s="2"/>
+      <x:c r="O31" s="2"/>
+      <x:c r="P31" s="1"/>
+      <x:c r="Q31" s="1"/>
+      <x:c r="R31" s="1"/>
+      <x:c r="S31" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:21">
-      <x:c r="D23" s="1"/>
-      <x:c r="E23" s="1"/>
-      <x:c r="F23" s="3"/>
-      <x:c r="G23" s="3"/>
-      <x:c r="H23" s="3"/>
-      <x:c r="I23" s="3"/>
-      <x:c r="J23" s="3"/>
-      <x:c r="K23" s="3"/>
-      <x:c r="L23" s="3"/>
-      <x:c r="M23" s="3"/>
-      <x:c r="N23" s="3"/>
-      <x:c r="O23" s="3"/>
-      <x:c r="P23" s="3"/>
-      <x:c r="Q23" s="3"/>
-      <x:c r="R23" s="3"/>
-      <x:c r="S23" s="0" t="s">
+      <x:c r="T31" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T23" s="0" t="s">
+      <x:c r="U31" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="U23" s="0" t="s">
+    </x:row>
+    <x:row r="32" spans="1:21">
+      <x:c r="D32" s="1"/>
+      <x:c r="E32" s="1"/>
+      <x:c r="F32" s="1"/>
+      <x:c r="G32" s="1"/>
+      <x:c r="H32" s="1"/>
+      <x:c r="I32" s="2"/>
+      <x:c r="J32" s="3"/>
+      <x:c r="K32" s="3"/>
+      <x:c r="L32" s="3"/>
+      <x:c r="M32" s="3"/>
+      <x:c r="N32" s="3"/>
+      <x:c r="O32" s="3"/>
+      <x:c r="P32" s="3"/>
+      <x:c r="Q32" s="3"/>
+      <x:c r="R32" s="3"/>
+      <x:c r="S32" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:21">
-      <x:c r="D24" s="3"/>
-      <x:c r="E24" s="3"/>
-      <x:c r="F24" s="3"/>
-      <x:c r="G24" s="3"/>
-      <x:c r="H24" s="3"/>
-      <x:c r="I24" s="3"/>
-      <x:c r="J24" s="3"/>
-      <x:c r="K24" s="3"/>
-      <x:c r="L24" s="3"/>
-      <x:c r="M24" s="3"/>
-      <x:c r="N24" s="3"/>
-      <x:c r="O24" s="3"/>
-      <x:c r="P24" s="3"/>
-      <x:c r="Q24" s="3"/>
-      <x:c r="R24" s="3"/>
-      <x:c r="S24" s="0" t="s">
+      <x:c r="T32" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="T24" s="0" t="s">
+      <x:c r="U32" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="U24" s="0" t="s">
+    </x:row>
+    <x:row r="35" spans="1:21">
+      <x:c r="C35" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:21">
-      <x:c r="B26" s="0" t="s">
+      <x:c r="D35" s="1"/>
+      <x:c r="E35" s="2"/>
+      <x:c r="F35" s="1"/>
+      <x:c r="G35" s="2"/>
+      <x:c r="H35" s="1"/>
+      <x:c r="I35" s="2"/>
+      <x:c r="J35" s="2"/>
+      <x:c r="K35" s="2"/>
+      <x:c r="L35" s="1"/>
+      <x:c r="M35" s="2"/>
+      <x:c r="N35" s="2"/>
+      <x:c r="O35" s="2"/>
+      <x:c r="P35" s="1"/>
+      <x:c r="Q35" s="2"/>
+      <x:c r="R35" s="2"/>
+    </x:row>
+    <x:row r="36" spans="1:21">
+      <x:c r="D36" s="1"/>
+      <x:c r="E36" s="2"/>
+      <x:c r="F36" s="1"/>
+      <x:c r="G36" s="2"/>
+      <x:c r="H36" s="1"/>
+      <x:c r="I36" s="2"/>
+      <x:c r="J36" s="2"/>
+      <x:c r="K36" s="3"/>
+      <x:c r="L36" s="1"/>
+      <x:c r="M36" s="3"/>
+      <x:c r="N36" s="3"/>
+      <x:c r="O36" s="2"/>
+      <x:c r="P36" s="1"/>
+      <x:c r="Q36" s="3"/>
+      <x:c r="R36" s="2"/>
+      <x:c r="S36" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:21">
-      <x:c r="B27" s="0" t="s">
+      <x:c r="T36" s="0" t="s">
         <x:v>46</x:v>
+      </x:c>
+      <x:c r="U36" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:21">
+      <x:c r="C39" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D39" s="1"/>
+      <x:c r="E39" s="1"/>
+      <x:c r="F39" s="1"/>
+      <x:c r="G39" s="1"/>
+      <x:c r="H39" s="2"/>
+      <x:c r="I39" s="1"/>
+      <x:c r="J39" s="1"/>
+      <x:c r="K39" s="1"/>
+      <x:c r="L39" s="1"/>
+      <x:c r="M39" s="1"/>
+      <x:c r="N39" s="1"/>
+      <x:c r="O39" s="1"/>
+      <x:c r="P39" s="1"/>
+      <x:c r="Q39" s="1"/>
+      <x:c r="R39" s="1"/>
+    </x:row>
+    <x:row r="40" spans="1:21">
+      <x:c r="D40" s="1"/>
+      <x:c r="E40" s="1"/>
+      <x:c r="F40" s="1"/>
+      <x:c r="G40" s="1"/>
+      <x:c r="H40" s="2"/>
+      <x:c r="I40" s="1"/>
+      <x:c r="J40" s="1"/>
+      <x:c r="K40" s="1"/>
+      <x:c r="L40" s="1"/>
+      <x:c r="M40" s="1"/>
+      <x:c r="N40" s="1"/>
+      <x:c r="O40" s="1"/>
+      <x:c r="P40" s="1"/>
+      <x:c r="Q40" s="1"/>
+      <x:c r="R40" s="1"/>
+      <x:c r="S40" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T40" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="U40" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:21">
+      <x:c r="D41" s="1"/>
+      <x:c r="E41" s="1"/>
+      <x:c r="F41" s="1"/>
+      <x:c r="G41" s="1"/>
+      <x:c r="H41" s="2"/>
+      <x:c r="I41" s="1"/>
+      <x:c r="J41" s="3"/>
+      <x:c r="K41" s="3"/>
+      <x:c r="L41" s="3"/>
+      <x:c r="M41" s="3"/>
+      <x:c r="N41" s="3"/>
+      <x:c r="O41" s="3"/>
+      <x:c r="P41" s="3"/>
+      <x:c r="Q41" s="3"/>
+      <x:c r="R41" s="3"/>
+      <x:c r="S41" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T41" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="U41" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:21">
+      <x:c r="C44" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D44" s="1"/>
+      <x:c r="E44" s="2"/>
+      <x:c r="F44" s="1"/>
+      <x:c r="G44" s="1"/>
+      <x:c r="H44" s="1"/>
+      <x:c r="I44" s="1"/>
+      <x:c r="J44" s="2"/>
+      <x:c r="K44" s="2"/>
+      <x:c r="L44" s="1"/>
+      <x:c r="M44" s="2"/>
+      <x:c r="N44" s="1"/>
+      <x:c r="O44" s="1"/>
+      <x:c r="P44" s="1"/>
+      <x:c r="Q44" s="2"/>
+      <x:c r="R44" s="1"/>
+    </x:row>
+    <x:row r="45" spans="1:21">
+      <x:c r="D45" s="1"/>
+      <x:c r="E45" s="2"/>
+      <x:c r="F45" s="1"/>
+      <x:c r="G45" s="1"/>
+      <x:c r="H45" s="1"/>
+      <x:c r="I45" s="1"/>
+      <x:c r="J45" s="2"/>
+      <x:c r="K45" s="3"/>
+      <x:c r="L45" s="1"/>
+      <x:c r="M45" s="3"/>
+      <x:c r="N45" s="1"/>
+      <x:c r="O45" s="1"/>
+      <x:c r="P45" s="1"/>
+      <x:c r="Q45" s="3"/>
+      <x:c r="R45" s="1"/>
+      <x:c r="S45" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="T45" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="U45" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:21">
+      <x:c r="C48" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D48" s="1"/>
+      <x:c r="E48" s="1"/>
+      <x:c r="F48" s="1"/>
+      <x:c r="G48" s="1"/>
+      <x:c r="H48" s="1"/>
+      <x:c r="I48" s="2"/>
+      <x:c r="J48" s="1"/>
+      <x:c r="K48" s="2"/>
+      <x:c r="L48" s="1"/>
+      <x:c r="M48" s="1"/>
+      <x:c r="N48" s="2"/>
+      <x:c r="O48" s="1"/>
+      <x:c r="P48" s="1"/>
+      <x:c r="Q48" s="1"/>
+      <x:c r="R48" s="1"/>
+    </x:row>
+    <x:row r="49" spans="1:21">
+      <x:c r="D49" s="1"/>
+      <x:c r="E49" s="1"/>
+      <x:c r="F49" s="1"/>
+      <x:c r="G49" s="1"/>
+      <x:c r="H49" s="1"/>
+      <x:c r="I49" s="2"/>
+      <x:c r="J49" s="1"/>
+      <x:c r="K49" s="2"/>
+      <x:c r="L49" s="1"/>
+      <x:c r="M49" s="1"/>
+      <x:c r="N49" s="2"/>
+      <x:c r="O49" s="1"/>
+      <x:c r="P49" s="1"/>
+      <x:c r="Q49" s="1"/>
+      <x:c r="R49" s="1"/>
+      <x:c r="S49" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="T49" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="U49" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:21">
+      <x:c r="D50" s="1"/>
+      <x:c r="E50" s="1"/>
+      <x:c r="F50" s="1"/>
+      <x:c r="G50" s="1"/>
+      <x:c r="H50" s="1"/>
+      <x:c r="I50" s="2"/>
+      <x:c r="J50" s="1"/>
+      <x:c r="K50" s="2"/>
+      <x:c r="L50" s="3"/>
+      <x:c r="M50" s="3"/>
+      <x:c r="N50" s="3"/>
+      <x:c r="O50" s="3"/>
+      <x:c r="P50" s="3"/>
+      <x:c r="Q50" s="3"/>
+      <x:c r="R50" s="3"/>
+      <x:c r="S50" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="T50" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="U50" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:21">
+      <x:c r="D51" s="1"/>
+      <x:c r="E51" s="1"/>
+      <x:c r="F51" s="1"/>
+      <x:c r="G51" s="1"/>
+      <x:c r="H51" s="1"/>
+      <x:c r="I51" s="2"/>
+      <x:c r="J51" s="3"/>
+      <x:c r="K51" s="3"/>
+      <x:c r="L51" s="3"/>
+      <x:c r="M51" s="3"/>
+      <x:c r="N51" s="3"/>
+      <x:c r="O51" s="3"/>
+      <x:c r="P51" s="3"/>
+      <x:c r="Q51" s="3"/>
+      <x:c r="R51" s="3"/>
+      <x:c r="S51" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="T51" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="U51" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:21">
+      <x:c r="C54" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:21">
+      <x:c r="D55" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:21">
+      <x:c r="D56" s="1"/>
+      <x:c r="E56" s="2"/>
+      <x:c r="F56" s="2"/>
+      <x:c r="G56" s="1"/>
+      <x:c r="H56" s="1"/>
+      <x:c r="I56" s="3"/>
+      <x:c r="J56" s="1"/>
+      <x:c r="K56" s="1"/>
+      <x:c r="L56" s="1"/>
+      <x:c r="M56" s="2"/>
+      <x:c r="N56" s="3"/>
+      <x:c r="O56" s="1"/>
+      <x:c r="P56" s="1"/>
+      <x:c r="Q56" s="3"/>
+      <x:c r="R56" s="1"/>
+      <x:c r="S56" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="T56" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="U56" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:21">
+      <x:c r="D57" s="1"/>
+      <x:c r="E57" s="2"/>
+      <x:c r="F57" s="3"/>
+      <x:c r="G57" s="3"/>
+      <x:c r="H57" s="3"/>
+      <x:c r="I57" s="3"/>
+      <x:c r="J57" s="3"/>
+      <x:c r="K57" s="3"/>
+      <x:c r="L57" s="3"/>
+      <x:c r="M57" s="3"/>
+      <x:c r="N57" s="3"/>
+      <x:c r="O57" s="3"/>
+      <x:c r="P57" s="3"/>
+      <x:c r="Q57" s="3"/>
+      <x:c r="R57" s="3"/>
+      <x:c r="S57" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="T57" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="U57" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:21">
+      <x:c r="C60" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D60" s="1"/>
+      <x:c r="E60" s="2"/>
+      <x:c r="F60" s="2"/>
+      <x:c r="G60" s="2"/>
+      <x:c r="H60" s="1"/>
+      <x:c r="I60" s="2"/>
+      <x:c r="J60" s="2"/>
+      <x:c r="K60" s="1"/>
+      <x:c r="L60" s="1"/>
+      <x:c r="M60" s="1"/>
+      <x:c r="N60" s="2"/>
+      <x:c r="O60" s="2"/>
+      <x:c r="P60" s="1"/>
+      <x:c r="Q60" s="1"/>
+      <x:c r="R60" s="1"/>
+    </x:row>
+    <x:row r="61" spans="1:21">
+      <x:c r="D61" s="1"/>
+      <x:c r="E61" s="2"/>
+      <x:c r="F61" s="2"/>
+      <x:c r="G61" s="2"/>
+      <x:c r="H61" s="1"/>
+      <x:c r="I61" s="2"/>
+      <x:c r="J61" s="2"/>
+      <x:c r="K61" s="1"/>
+      <x:c r="L61" s="1"/>
+      <x:c r="M61" s="1"/>
+      <x:c r="N61" s="2"/>
+      <x:c r="O61" s="2"/>
+      <x:c r="P61" s="1"/>
+      <x:c r="Q61" s="1"/>
+      <x:c r="R61" s="1"/>
+      <x:c r="S61" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="T61" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="U61" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:21">
+      <x:c r="D62" s="1"/>
+      <x:c r="E62" s="2"/>
+      <x:c r="F62" s="2"/>
+      <x:c r="G62" s="2"/>
+      <x:c r="H62" s="3"/>
+      <x:c r="I62" s="2"/>
+      <x:c r="J62" s="2"/>
+      <x:c r="K62" s="3"/>
+      <x:c r="L62" s="1"/>
+      <x:c r="M62" s="3"/>
+      <x:c r="N62" s="3"/>
+      <x:c r="O62" s="2"/>
+      <x:c r="P62" s="1"/>
+      <x:c r="Q62" s="3"/>
+      <x:c r="R62" s="1"/>
+      <x:c r="S62" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T62" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="U62" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:21">
+      <x:c r="C65" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D65" s="1"/>
+      <x:c r="E65" s="1"/>
+      <x:c r="F65" s="2"/>
+      <x:c r="G65" s="1"/>
+      <x:c r="H65" s="1"/>
+      <x:c r="I65" s="1"/>
+      <x:c r="J65" s="2"/>
+      <x:c r="K65" s="2"/>
+      <x:c r="L65" s="1"/>
+      <x:c r="M65" s="2"/>
+      <x:c r="N65" s="2"/>
+      <x:c r="O65" s="1"/>
+      <x:c r="P65" s="2"/>
+      <x:c r="Q65" s="2"/>
+      <x:c r="R65" s="1"/>
+    </x:row>
+    <x:row r="66" spans="1:21">
+      <x:c r="D66" s="1"/>
+      <x:c r="E66" s="1"/>
+      <x:c r="F66" s="2"/>
+      <x:c r="G66" s="1"/>
+      <x:c r="H66" s="1"/>
+      <x:c r="I66" s="1"/>
+      <x:c r="J66" s="2"/>
+      <x:c r="K66" s="3"/>
+      <x:c r="L66" s="1"/>
+      <x:c r="M66" s="3"/>
+      <x:c r="N66" s="3"/>
+      <x:c r="O66" s="1"/>
+      <x:c r="P66" s="2"/>
+      <x:c r="Q66" s="3"/>
+      <x:c r="R66" s="1"/>
+      <x:c r="S66" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="T66" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="U66" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:21">
+      <x:c r="C69" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D69" s="1"/>
+      <x:c r="E69" s="1"/>
+      <x:c r="F69" s="2"/>
+      <x:c r="G69" s="1"/>
+      <x:c r="H69" s="2"/>
+      <x:c r="I69" s="1"/>
+      <x:c r="J69" s="1"/>
+      <x:c r="K69" s="1"/>
+      <x:c r="L69" s="1"/>
+      <x:c r="M69" s="1"/>
+      <x:c r="N69" s="1"/>
+      <x:c r="O69" s="2"/>
+      <x:c r="P69" s="1"/>
+      <x:c r="Q69" s="1"/>
+      <x:c r="R69" s="1"/>
+    </x:row>
+    <x:row r="70" spans="1:21">
+      <x:c r="D70" s="1"/>
+      <x:c r="E70" s="1"/>
+      <x:c r="F70" s="2"/>
+      <x:c r="G70" s="1"/>
+      <x:c r="H70" s="2"/>
+      <x:c r="I70" s="1"/>
+      <x:c r="J70" s="1"/>
+      <x:c r="K70" s="1"/>
+      <x:c r="L70" s="1"/>
+      <x:c r="M70" s="1"/>
+      <x:c r="N70" s="1"/>
+      <x:c r="O70" s="2"/>
+      <x:c r="P70" s="1"/>
+      <x:c r="Q70" s="1"/>
+      <x:c r="R70" s="1"/>
+      <x:c r="S70" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="T70" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="U70" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:21">
+      <x:c r="D71" s="1"/>
+      <x:c r="E71" s="1"/>
+      <x:c r="F71" s="2"/>
+      <x:c r="G71" s="3"/>
+      <x:c r="H71" s="3"/>
+      <x:c r="I71" s="3"/>
+      <x:c r="J71" s="3"/>
+      <x:c r="K71" s="3"/>
+      <x:c r="L71" s="3"/>
+      <x:c r="M71" s="3"/>
+      <x:c r="N71" s="3"/>
+      <x:c r="O71" s="3"/>
+      <x:c r="P71" s="3"/>
+      <x:c r="Q71" s="3"/>
+      <x:c r="R71" s="3"/>
+      <x:c r="S71" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="T71" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="U71" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:21">
+      <x:c r="C74" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D74" s="1"/>
+      <x:c r="E74" s="1"/>
+      <x:c r="F74" s="2"/>
+      <x:c r="G74" s="1"/>
+      <x:c r="H74" s="1"/>
+      <x:c r="I74" s="2"/>
+      <x:c r="J74" s="2"/>
+      <x:c r="K74" s="1"/>
+      <x:c r="L74" s="1"/>
+      <x:c r="M74" s="2"/>
+      <x:c r="N74" s="2"/>
+      <x:c r="O74" s="1"/>
+      <x:c r="P74" s="1"/>
+      <x:c r="Q74" s="1"/>
+      <x:c r="R74" s="2"/>
+    </x:row>
+    <x:row r="75" spans="1:21">
+      <x:c r="D75" s="1"/>
+      <x:c r="E75" s="1"/>
+      <x:c r="F75" s="2"/>
+      <x:c r="G75" s="1"/>
+      <x:c r="H75" s="1"/>
+      <x:c r="I75" s="2"/>
+      <x:c r="J75" s="2"/>
+      <x:c r="K75" s="1"/>
+      <x:c r="L75" s="1"/>
+      <x:c r="M75" s="3"/>
+      <x:c r="N75" s="3"/>
+      <x:c r="O75" s="1"/>
+      <x:c r="P75" s="1"/>
+      <x:c r="Q75" s="1"/>
+      <x:c r="R75" s="2"/>
+      <x:c r="S75" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="T75" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="U75" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:21">
+      <x:c r="C78" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D78" s="1"/>
+      <x:c r="E78" s="1"/>
+      <x:c r="F78" s="1"/>
+      <x:c r="G78" s="2"/>
+      <x:c r="H78" s="1"/>
+      <x:c r="I78" s="1"/>
+      <x:c r="J78" s="2"/>
+      <x:c r="K78" s="2"/>
+      <x:c r="L78" s="1"/>
+      <x:c r="M78" s="2"/>
+      <x:c r="N78" s="2"/>
+      <x:c r="O78" s="1"/>
+      <x:c r="P78" s="2"/>
+      <x:c r="Q78" s="2"/>
+      <x:c r="R78" s="2"/>
+    </x:row>
+    <x:row r="79" spans="1:21">
+      <x:c r="D79" s="1"/>
+      <x:c r="E79" s="1"/>
+      <x:c r="F79" s="1"/>
+      <x:c r="G79" s="2"/>
+      <x:c r="H79" s="1"/>
+      <x:c r="I79" s="1"/>
+      <x:c r="J79" s="2"/>
+      <x:c r="K79" s="3"/>
+      <x:c r="L79" s="1"/>
+      <x:c r="M79" s="3"/>
+      <x:c r="N79" s="3"/>
+      <x:c r="O79" s="1"/>
+      <x:c r="P79" s="2"/>
+      <x:c r="Q79" s="3"/>
+      <x:c r="R79" s="2"/>
+      <x:c r="S79" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="T79" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="U79" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:21">
+      <x:c r="D80" s="1"/>
+      <x:c r="E80" s="1"/>
+      <x:c r="F80" s="1"/>
+      <x:c r="G80" s="2"/>
+      <x:c r="H80" s="1"/>
+      <x:c r="I80" s="1"/>
+      <x:c r="J80" s="2"/>
+      <x:c r="K80" s="3"/>
+      <x:c r="L80" s="1"/>
+      <x:c r="M80" s="3"/>
+      <x:c r="N80" s="3"/>
+      <x:c r="O80" s="1"/>
+      <x:c r="P80" s="2"/>
+      <x:c r="Q80" s="3"/>
+      <x:c r="R80" s="3"/>
+      <x:c r="S80" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="T80" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="U80" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:21">
+      <x:c r="D81" s="1"/>
+      <x:c r="E81" s="1"/>
+      <x:c r="F81" s="1"/>
+      <x:c r="G81" s="2"/>
+      <x:c r="H81" s="1"/>
+      <x:c r="I81" s="1"/>
+      <x:c r="J81" s="2"/>
+      <x:c r="K81" s="3"/>
+      <x:c r="L81" s="3"/>
+      <x:c r="M81" s="3"/>
+      <x:c r="N81" s="3"/>
+      <x:c r="O81" s="3"/>
+      <x:c r="P81" s="3"/>
+      <x:c r="Q81" s="3"/>
+      <x:c r="R81" s="3"/>
+      <x:c r="S81" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="T81" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="U81" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:21">
+      <x:c r="D82" s="1"/>
+      <x:c r="E82" s="1"/>
+      <x:c r="F82" s="1"/>
+      <x:c r="G82" s="2"/>
+      <x:c r="H82" s="3"/>
+      <x:c r="I82" s="3"/>
+      <x:c r="J82" s="3"/>
+      <x:c r="K82" s="3"/>
+      <x:c r="L82" s="3"/>
+      <x:c r="M82" s="3"/>
+      <x:c r="N82" s="3"/>
+      <x:c r="O82" s="3"/>
+      <x:c r="P82" s="3"/>
+      <x:c r="Q82" s="3"/>
+      <x:c r="R82" s="3"/>
+      <x:c r="S82" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="T82" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="U82" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:21">
+      <x:c r="C85" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D85" s="1"/>
+      <x:c r="E85" s="2"/>
+      <x:c r="F85" s="1"/>
+      <x:c r="G85" s="1"/>
+      <x:c r="H85" s="1"/>
+      <x:c r="I85" s="1"/>
+      <x:c r="J85" s="2"/>
+      <x:c r="K85" s="2"/>
+      <x:c r="L85" s="1"/>
+      <x:c r="M85" s="2"/>
+      <x:c r="N85" s="2"/>
+      <x:c r="O85" s="2"/>
+      <x:c r="P85" s="1"/>
+      <x:c r="Q85" s="2"/>
+      <x:c r="R85" s="2"/>
+    </x:row>
+    <x:row r="86" spans="1:21">
+      <x:c r="D86" s="1"/>
+      <x:c r="E86" s="2"/>
+      <x:c r="F86" s="1"/>
+      <x:c r="G86" s="1"/>
+      <x:c r="H86" s="1"/>
+      <x:c r="I86" s="1"/>
+      <x:c r="J86" s="2"/>
+      <x:c r="K86" s="3"/>
+      <x:c r="L86" s="1"/>
+      <x:c r="M86" s="3"/>
+      <x:c r="N86" s="3"/>
+      <x:c r="O86" s="2"/>
+      <x:c r="P86" s="1"/>
+      <x:c r="Q86" s="3"/>
+      <x:c r="R86" s="2"/>
+      <x:c r="S86" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="T86" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="U86" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:21">
+      <x:c r="D87" s="1"/>
+      <x:c r="E87" s="2"/>
+      <x:c r="F87" s="3"/>
+      <x:c r="G87" s="3"/>
+      <x:c r="H87" s="3"/>
+      <x:c r="I87" s="3"/>
+      <x:c r="J87" s="3"/>
+      <x:c r="K87" s="3"/>
+      <x:c r="L87" s="3"/>
+      <x:c r="M87" s="3"/>
+      <x:c r="N87" s="3"/>
+      <x:c r="O87" s="3"/>
+      <x:c r="P87" s="3"/>
+      <x:c r="Q87" s="3"/>
+      <x:c r="R87" s="3"/>
+      <x:c r="S87" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="T87" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="U87" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:21">
+      <x:c r="C90" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D90" s="1"/>
+      <x:c r="E90" s="2"/>
+      <x:c r="F90" s="1"/>
+      <x:c r="G90" s="1"/>
+      <x:c r="H90" s="2"/>
+      <x:c r="I90" s="1"/>
+      <x:c r="J90" s="1"/>
+      <x:c r="K90" s="2"/>
+      <x:c r="L90" s="1"/>
+      <x:c r="M90" s="2"/>
+      <x:c r="N90" s="1"/>
+      <x:c r="O90" s="1"/>
+      <x:c r="P90" s="1"/>
+      <x:c r="Q90" s="1"/>
+      <x:c r="R90" s="1"/>
+    </x:row>
+    <x:row r="91" spans="1:21">
+      <x:c r="D91" s="1"/>
+      <x:c r="E91" s="2"/>
+      <x:c r="F91" s="1"/>
+      <x:c r="G91" s="1"/>
+      <x:c r="H91" s="2"/>
+      <x:c r="I91" s="1"/>
+      <x:c r="J91" s="1"/>
+      <x:c r="K91" s="3"/>
+      <x:c r="L91" s="1"/>
+      <x:c r="M91" s="3"/>
+      <x:c r="N91" s="1"/>
+      <x:c r="O91" s="1"/>
+      <x:c r="P91" s="1"/>
+      <x:c r="Q91" s="1"/>
+      <x:c r="R91" s="1"/>
+      <x:c r="S91" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="T91" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="U91" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:21">
+      <x:c r="C94" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D94" s="1"/>
+      <x:c r="E94" s="2"/>
+      <x:c r="F94" s="1"/>
+      <x:c r="G94" s="1"/>
+      <x:c r="H94" s="2"/>
+      <x:c r="I94" s="2"/>
+      <x:c r="J94" s="1"/>
+      <x:c r="K94" s="2"/>
+      <x:c r="L94" s="1"/>
+      <x:c r="M94" s="2"/>
+      <x:c r="N94" s="2"/>
+      <x:c r="O94" s="1"/>
+      <x:c r="P94" s="1"/>
+      <x:c r="Q94" s="2"/>
+      <x:c r="R94" s="2"/>
+    </x:row>
+    <x:row r="95" spans="1:21">
+      <x:c r="D95" s="1"/>
+      <x:c r="E95" s="2"/>
+      <x:c r="F95" s="1"/>
+      <x:c r="G95" s="1"/>
+      <x:c r="H95" s="3"/>
+      <x:c r="I95" s="2"/>
+      <x:c r="J95" s="1"/>
+      <x:c r="K95" s="3"/>
+      <x:c r="L95" s="1"/>
+      <x:c r="M95" s="3"/>
+      <x:c r="N95" s="3"/>
+      <x:c r="O95" s="1"/>
+      <x:c r="P95" s="1"/>
+      <x:c r="Q95" s="3"/>
+      <x:c r="R95" s="2"/>
+      <x:c r="S95" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="T95" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="U95" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:21">
+      <x:c r="B97" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:21">
+      <x:c r="B98" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:21">
+      <x:c r="C100" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D100" s="1"/>
+      <x:c r="E100" s="2"/>
+      <x:c r="F100" s="1"/>
+      <x:c r="G100" s="1"/>
+      <x:c r="H100" s="1"/>
+      <x:c r="I100" s="1"/>
+      <x:c r="J100" s="1"/>
+      <x:c r="K100" s="1"/>
+      <x:c r="L100" s="1"/>
+      <x:c r="M100" s="2"/>
+      <x:c r="N100" s="1"/>
+      <x:c r="O100" s="1"/>
+      <x:c r="P100" s="1"/>
+      <x:c r="Q100" s="1"/>
+      <x:c r="R100" s="1"/>
+    </x:row>
+    <x:row r="101" spans="1:21">
+      <x:c r="D101" s="1"/>
+      <x:c r="E101" s="2"/>
+      <x:c r="F101" s="1"/>
+      <x:c r="G101" s="1"/>
+      <x:c r="H101" s="1"/>
+      <x:c r="I101" s="1"/>
+      <x:c r="J101" s="1"/>
+      <x:c r="K101" s="1"/>
+      <x:c r="L101" s="1"/>
+      <x:c r="M101" s="2"/>
+      <x:c r="N101" s="1"/>
+      <x:c r="O101" s="1"/>
+      <x:c r="P101" s="1"/>
+      <x:c r="Q101" s="1"/>
+      <x:c r="R101" s="1"/>
+      <x:c r="S101" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="T101" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="U101" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:21">
+      <x:c r="C104" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D104" s="1"/>
+      <x:c r="E104" s="1"/>
+      <x:c r="F104" s="1"/>
+      <x:c r="G104" s="1"/>
+      <x:c r="H104" s="1"/>
+      <x:c r="I104" s="2"/>
+      <x:c r="J104" s="2"/>
+      <x:c r="K104" s="1"/>
+      <x:c r="L104" s="1"/>
+      <x:c r="M104" s="2"/>
+      <x:c r="N104" s="1"/>
+      <x:c r="O104" s="1"/>
+      <x:c r="P104" s="1"/>
+      <x:c r="Q104" s="1"/>
+      <x:c r="R104" s="1"/>
+    </x:row>
+    <x:row r="105" spans="1:21">
+      <x:c r="D105" s="1"/>
+      <x:c r="E105" s="1"/>
+      <x:c r="F105" s="1"/>
+      <x:c r="G105" s="1"/>
+      <x:c r="H105" s="1"/>
+      <x:c r="I105" s="2"/>
+      <x:c r="J105" s="2"/>
+      <x:c r="K105" s="1"/>
+      <x:c r="L105" s="1"/>
+      <x:c r="M105" s="2"/>
+      <x:c r="N105" s="1"/>
+      <x:c r="O105" s="1"/>
+      <x:c r="P105" s="1"/>
+      <x:c r="Q105" s="1"/>
+      <x:c r="R105" s="1"/>
+      <x:c r="S105" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="T105" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="U105" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:21">
+      <x:c r="D106" s="1"/>
+      <x:c r="E106" s="1"/>
+      <x:c r="F106" s="1"/>
+      <x:c r="G106" s="1"/>
+      <x:c r="H106" s="1"/>
+      <x:c r="I106" s="2"/>
+      <x:c r="J106" s="2"/>
+      <x:c r="K106" s="3"/>
+      <x:c r="L106" s="3"/>
+      <x:c r="M106" s="3"/>
+      <x:c r="N106" s="3"/>
+      <x:c r="O106" s="3"/>
+      <x:c r="P106" s="3"/>
+      <x:c r="Q106" s="3"/>
+      <x:c r="R106" s="3"/>
+      <x:c r="S106" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="T106" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="U106" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:21">
+      <x:c r="D107" s="1"/>
+      <x:c r="E107" s="1"/>
+      <x:c r="F107" s="1"/>
+      <x:c r="G107" s="1"/>
+      <x:c r="H107" s="1"/>
+      <x:c r="I107" s="2"/>
+      <x:c r="J107" s="3"/>
+      <x:c r="K107" s="3"/>
+      <x:c r="L107" s="3"/>
+      <x:c r="M107" s="3"/>
+      <x:c r="N107" s="3"/>
+      <x:c r="O107" s="3"/>
+      <x:c r="P107" s="3"/>
+      <x:c r="Q107" s="3"/>
+      <x:c r="R107" s="3"/>
+      <x:c r="S107" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="T107" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="U107" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:21">
+      <x:c r="C110" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D110" s="1"/>
+      <x:c r="E110" s="1"/>
+      <x:c r="F110" s="1"/>
+      <x:c r="G110" s="1"/>
+      <x:c r="H110" s="1"/>
+      <x:c r="I110" s="1"/>
+      <x:c r="J110" s="1"/>
+      <x:c r="K110" s="1"/>
+      <x:c r="L110" s="1"/>
+      <x:c r="M110" s="2"/>
+      <x:c r="N110" s="1"/>
+      <x:c r="O110" s="1"/>
+      <x:c r="P110" s="1"/>
+      <x:c r="Q110" s="1"/>
+      <x:c r="R110" s="1"/>
+    </x:row>
+    <x:row r="111" spans="1:21">
+      <x:c r="D111" s="1"/>
+      <x:c r="E111" s="1"/>
+      <x:c r="F111" s="1"/>
+      <x:c r="G111" s="1"/>
+      <x:c r="H111" s="1"/>
+      <x:c r="I111" s="1"/>
+      <x:c r="J111" s="1"/>
+      <x:c r="K111" s="1"/>
+      <x:c r="L111" s="1"/>
+      <x:c r="M111" s="2"/>
+      <x:c r="N111" s="1"/>
+      <x:c r="O111" s="1"/>
+      <x:c r="P111" s="1"/>
+      <x:c r="Q111" s="1"/>
+      <x:c r="R111" s="1"/>
+      <x:c r="S111" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="T111" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="U111" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:21">
+      <x:c r="C114" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D114" s="2"/>
+      <x:c r="E114" s="1"/>
+      <x:c r="F114" s="2"/>
+      <x:c r="G114" s="2"/>
+      <x:c r="H114" s="2"/>
+      <x:c r="I114" s="2"/>
+      <x:c r="J114" s="2"/>
+      <x:c r="K114" s="2"/>
+      <x:c r="L114" s="1"/>
+      <x:c r="M114" s="2"/>
+      <x:c r="N114" s="2"/>
+      <x:c r="O114" s="2"/>
+      <x:c r="P114" s="1"/>
+      <x:c r="Q114" s="2"/>
+      <x:c r="R114" s="2"/>
+    </x:row>
+    <x:row r="115" spans="1:21">
+      <x:c r="D115" s="2"/>
+      <x:c r="E115" s="1"/>
+      <x:c r="F115" s="2"/>
+      <x:c r="G115" s="2"/>
+      <x:c r="H115" s="2"/>
+      <x:c r="I115" s="2"/>
+      <x:c r="J115" s="2"/>
+      <x:c r="K115" s="2"/>
+      <x:c r="L115" s="1"/>
+      <x:c r="M115" s="2"/>
+      <x:c r="N115" s="2"/>
+      <x:c r="O115" s="2"/>
+      <x:c r="P115" s="1"/>
+      <x:c r="Q115" s="2"/>
+      <x:c r="R115" s="2"/>
+      <x:c r="S115" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="T115" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="U115" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:21">
+      <x:c r="C118" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D118" s="2"/>
+      <x:c r="E118" s="2"/>
+      <x:c r="F118" s="1"/>
+      <x:c r="G118" s="2"/>
+      <x:c r="H118" s="2"/>
+      <x:c r="I118" s="2"/>
+      <x:c r="J118" s="1"/>
+      <x:c r="K118" s="1"/>
+      <x:c r="L118" s="1"/>
+      <x:c r="M118" s="1"/>
+      <x:c r="N118" s="1"/>
+      <x:c r="O118" s="2"/>
+      <x:c r="P118" s="1"/>
+      <x:c r="Q118" s="1"/>
+      <x:c r="R118" s="1"/>
+    </x:row>
+    <x:row r="119" spans="1:21">
+      <x:c r="D119" s="2"/>
+      <x:c r="E119" s="2"/>
+      <x:c r="F119" s="1"/>
+      <x:c r="G119" s="2"/>
+      <x:c r="H119" s="2"/>
+      <x:c r="I119" s="2"/>
+      <x:c r="J119" s="1"/>
+      <x:c r="K119" s="1"/>
+      <x:c r="L119" s="1"/>
+      <x:c r="M119" s="1"/>
+      <x:c r="N119" s="1"/>
+      <x:c r="O119" s="2"/>
+      <x:c r="P119" s="1"/>
+      <x:c r="Q119" s="1"/>
+      <x:c r="R119" s="1"/>
+      <x:c r="S119" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="T119" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="U119" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:21">
+      <x:c r="D120" s="2"/>
+      <x:c r="E120" s="3"/>
+      <x:c r="F120" s="3"/>
+      <x:c r="G120" s="3"/>
+      <x:c r="H120" s="3"/>
+      <x:c r="I120" s="3"/>
+      <x:c r="J120" s="3"/>
+      <x:c r="K120" s="3"/>
+      <x:c r="L120" s="3"/>
+      <x:c r="M120" s="3"/>
+      <x:c r="N120" s="3"/>
+      <x:c r="O120" s="3"/>
+      <x:c r="P120" s="3"/>
+      <x:c r="Q120" s="3"/>
+      <x:c r="R120" s="3"/>
+      <x:c r="S120" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="T120" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="U120" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:21">
+      <x:c r="C123" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D123" s="1"/>
+      <x:c r="E123" s="1"/>
+      <x:c r="F123" s="2"/>
+      <x:c r="G123" s="1"/>
+      <x:c r="H123" s="1"/>
+      <x:c r="I123" s="1"/>
+      <x:c r="J123" s="1"/>
+      <x:c r="K123" s="1"/>
+      <x:c r="L123" s="1"/>
+      <x:c r="M123" s="2"/>
+      <x:c r="N123" s="2"/>
+      <x:c r="O123" s="2"/>
+      <x:c r="P123" s="1"/>
+      <x:c r="Q123" s="2"/>
+      <x:c r="R123" s="1"/>
+    </x:row>
+    <x:row r="124" spans="1:21">
+      <x:c r="D124" s="1"/>
+      <x:c r="E124" s="1"/>
+      <x:c r="F124" s="2"/>
+      <x:c r="G124" s="1"/>
+      <x:c r="H124" s="1"/>
+      <x:c r="I124" s="1"/>
+      <x:c r="J124" s="1"/>
+      <x:c r="K124" s="1"/>
+      <x:c r="L124" s="1"/>
+      <x:c r="M124" s="2"/>
+      <x:c r="N124" s="2"/>
+      <x:c r="O124" s="2"/>
+      <x:c r="P124" s="1"/>
+      <x:c r="Q124" s="2"/>
+      <x:c r="R124" s="1"/>
+      <x:c r="S124" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="T124" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="U124" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:21">
+      <x:c r="D125" s="3"/>
+      <x:c r="E125" s="3"/>
+      <x:c r="F125" s="3"/>
+      <x:c r="G125" s="3"/>
+      <x:c r="H125" s="3"/>
+      <x:c r="I125" s="3"/>
+      <x:c r="J125" s="3"/>
+      <x:c r="K125" s="3"/>
+      <x:c r="L125" s="3"/>
+      <x:c r="M125" s="3"/>
+      <x:c r="N125" s="3"/>
+      <x:c r="O125" s="3"/>
+      <x:c r="P125" s="3"/>
+      <x:c r="Q125" s="3"/>
+      <x:c r="R125" s="3"/>
+      <x:c r="S125" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="T125" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="U125" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:21">
+      <x:c r="C128" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D128" s="1"/>
+      <x:c r="E128" s="1"/>
+      <x:c r="F128" s="1"/>
+      <x:c r="G128" s="2"/>
+      <x:c r="H128" s="2"/>
+      <x:c r="I128" s="1"/>
+      <x:c r="J128" s="2"/>
+      <x:c r="K128" s="2"/>
+      <x:c r="L128" s="1"/>
+      <x:c r="M128" s="2"/>
+      <x:c r="N128" s="2"/>
+      <x:c r="O128" s="2"/>
+      <x:c r="P128" s="2"/>
+      <x:c r="Q128" s="1"/>
+      <x:c r="R128" s="2"/>
+    </x:row>
+    <x:row r="129" spans="1:21">
+      <x:c r="D129" s="1"/>
+      <x:c r="E129" s="1"/>
+      <x:c r="F129" s="1"/>
+      <x:c r="G129" s="2"/>
+      <x:c r="H129" s="2"/>
+      <x:c r="I129" s="1"/>
+      <x:c r="J129" s="2"/>
+      <x:c r="K129" s="2"/>
+      <x:c r="L129" s="1"/>
+      <x:c r="M129" s="2"/>
+      <x:c r="N129" s="2"/>
+      <x:c r="O129" s="2"/>
+      <x:c r="P129" s="2"/>
+      <x:c r="Q129" s="1"/>
+      <x:c r="R129" s="2"/>
+      <x:c r="S129" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="T129" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="U129" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:21">
+      <x:c r="D130" s="1"/>
+      <x:c r="E130" s="1"/>
+      <x:c r="F130" s="1"/>
+      <x:c r="G130" s="2"/>
+      <x:c r="H130" s="3"/>
+      <x:c r="I130" s="3"/>
+      <x:c r="J130" s="3"/>
+      <x:c r="K130" s="3"/>
+      <x:c r="L130" s="3"/>
+      <x:c r="M130" s="3"/>
+      <x:c r="N130" s="3"/>
+      <x:c r="O130" s="3"/>
+      <x:c r="P130" s="3"/>
+      <x:c r="Q130" s="3"/>
+      <x:c r="R130" s="3"/>
+      <x:c r="S130" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="T130" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="U130" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:21">
+      <x:c r="C133" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D133" s="1"/>
+      <x:c r="E133" s="2"/>
+      <x:c r="F133" s="2"/>
+      <x:c r="G133" s="1"/>
+      <x:c r="H133" s="1"/>
+      <x:c r="I133" s="1"/>
+      <x:c r="J133" s="2"/>
+      <x:c r="K133" s="2"/>
+      <x:c r="L133" s="1"/>
+      <x:c r="M133" s="2"/>
+      <x:c r="N133" s="1"/>
+      <x:c r="O133" s="1"/>
+      <x:c r="P133" s="2"/>
+      <x:c r="Q133" s="1"/>
+      <x:c r="R133" s="2"/>
+    </x:row>
+    <x:row r="134" spans="1:21">
+      <x:c r="D134" s="1"/>
+      <x:c r="E134" s="2"/>
+      <x:c r="F134" s="2"/>
+      <x:c r="G134" s="1"/>
+      <x:c r="H134" s="1"/>
+      <x:c r="I134" s="1"/>
+      <x:c r="J134" s="2"/>
+      <x:c r="K134" s="2"/>
+      <x:c r="L134" s="1"/>
+      <x:c r="M134" s="2"/>
+      <x:c r="N134" s="1"/>
+      <x:c r="O134" s="1"/>
+      <x:c r="P134" s="2"/>
+      <x:c r="Q134" s="1"/>
+      <x:c r="R134" s="2"/>
+      <x:c r="S134" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="T134" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="U134" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:21">
+      <x:c r="C137" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:21">
+      <x:c r="D138" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:21">
+      <x:c r="C141" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D141" s="2"/>
+      <x:c r="E141" s="1"/>
+      <x:c r="F141" s="1"/>
+      <x:c r="G141" s="2"/>
+      <x:c r="H141" s="2"/>
+      <x:c r="I141" s="2"/>
+      <x:c r="J141" s="2"/>
+      <x:c r="K141" s="2"/>
+      <x:c r="L141" s="1"/>
+      <x:c r="M141" s="2"/>
+      <x:c r="N141" s="2"/>
+      <x:c r="O141" s="1"/>
+      <x:c r="P141" s="1"/>
+      <x:c r="Q141" s="2"/>
+      <x:c r="R141" s="1"/>
+    </x:row>
+    <x:row r="142" spans="1:21">
+      <x:c r="D142" s="2"/>
+      <x:c r="E142" s="1"/>
+      <x:c r="F142" s="1"/>
+      <x:c r="G142" s="2"/>
+      <x:c r="H142" s="2"/>
+      <x:c r="I142" s="2"/>
+      <x:c r="J142" s="2"/>
+      <x:c r="K142" s="3"/>
+      <x:c r="L142" s="1"/>
+      <x:c r="M142" s="2"/>
+      <x:c r="N142" s="3"/>
+      <x:c r="O142" s="1"/>
+      <x:c r="P142" s="1"/>
+      <x:c r="Q142" s="3"/>
+      <x:c r="R142" s="1"/>
+      <x:c r="S142" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="T142" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="U142" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:21">
+      <x:c r="C145" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D145" s="1"/>
+      <x:c r="E145" s="1"/>
+      <x:c r="F145" s="1"/>
+      <x:c r="G145" s="1"/>
+      <x:c r="H145" s="2"/>
+      <x:c r="I145" s="1"/>
+      <x:c r="J145" s="1"/>
+      <x:c r="K145" s="2"/>
+      <x:c r="L145" s="1"/>
+      <x:c r="M145" s="2"/>
+      <x:c r="N145" s="2"/>
+      <x:c r="O145" s="1"/>
+      <x:c r="P145" s="1"/>
+      <x:c r="Q145" s="1"/>
+      <x:c r="R145" s="1"/>
+    </x:row>
+    <x:row r="146" spans="1:21">
+      <x:c r="D146" s="1"/>
+      <x:c r="E146" s="1"/>
+      <x:c r="F146" s="1"/>
+      <x:c r="G146" s="1"/>
+      <x:c r="H146" s="2"/>
+      <x:c r="I146" s="1"/>
+      <x:c r="J146" s="1"/>
+      <x:c r="K146" s="2"/>
+      <x:c r="L146" s="1"/>
+      <x:c r="M146" s="2"/>
+      <x:c r="N146" s="2"/>
+      <x:c r="O146" s="1"/>
+      <x:c r="P146" s="1"/>
+      <x:c r="Q146" s="1"/>
+      <x:c r="R146" s="1"/>
+      <x:c r="S146" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="T146" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="U146" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:21">
+      <x:c r="C149" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D149" s="1"/>
+      <x:c r="E149" s="1"/>
+      <x:c r="F149" s="1"/>
+      <x:c r="G149" s="1"/>
+      <x:c r="H149" s="1"/>
+      <x:c r="I149" s="1"/>
+      <x:c r="J149" s="2"/>
+      <x:c r="K149" s="1"/>
+      <x:c r="L149" s="1"/>
+      <x:c r="M149" s="1"/>
+      <x:c r="N149" s="2"/>
+      <x:c r="O149" s="2"/>
+      <x:c r="P149" s="1"/>
+      <x:c r="Q149" s="1"/>
+      <x:c r="R149" s="1"/>
+    </x:row>
+    <x:row r="150" spans="1:21">
+      <x:c r="D150" s="1"/>
+      <x:c r="E150" s="1"/>
+      <x:c r="F150" s="1"/>
+      <x:c r="G150" s="1"/>
+      <x:c r="H150" s="1"/>
+      <x:c r="I150" s="1"/>
+      <x:c r="J150" s="2"/>
+      <x:c r="K150" s="1"/>
+      <x:c r="L150" s="1"/>
+      <x:c r="M150" s="1"/>
+      <x:c r="N150" s="2"/>
+      <x:c r="O150" s="2"/>
+      <x:c r="P150" s="1"/>
+      <x:c r="Q150" s="1"/>
+      <x:c r="R150" s="1"/>
+      <x:c r="S150" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="T150" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="U150" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:21">
+      <x:c r="C153" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D153" s="1"/>
+      <x:c r="E153" s="1"/>
+      <x:c r="F153" s="2"/>
+      <x:c r="G153" s="1"/>
+      <x:c r="H153" s="1"/>
+      <x:c r="I153" s="2"/>
+      <x:c r="J153" s="1"/>
+      <x:c r="K153" s="1"/>
+      <x:c r="L153" s="1"/>
+      <x:c r="M153" s="1"/>
+      <x:c r="N153" s="2"/>
+      <x:c r="O153" s="1"/>
+      <x:c r="P153" s="2"/>
+      <x:c r="Q153" s="1"/>
+      <x:c r="R153" s="1"/>
+    </x:row>
+    <x:row r="154" spans="1:21">
+      <x:c r="D154" s="1"/>
+      <x:c r="E154" s="1"/>
+      <x:c r="F154" s="2"/>
+      <x:c r="G154" s="1"/>
+      <x:c r="H154" s="1"/>
+      <x:c r="I154" s="2"/>
+      <x:c r="J154" s="1"/>
+      <x:c r="K154" s="1"/>
+      <x:c r="L154" s="1"/>
+      <x:c r="M154" s="1"/>
+      <x:c r="N154" s="2"/>
+      <x:c r="O154" s="1"/>
+      <x:c r="P154" s="2"/>
+      <x:c r="Q154" s="1"/>
+      <x:c r="R154" s="1"/>
+      <x:c r="S154" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="T154" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="U154" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:21">
+      <x:c r="C157" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:21">
+      <x:c r="D158" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:21">
+      <x:c r="C161" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D161" s="1"/>
+      <x:c r="E161" s="2"/>
+      <x:c r="F161" s="2"/>
+      <x:c r="G161" s="2"/>
+      <x:c r="H161" s="2"/>
+      <x:c r="I161" s="1"/>
+      <x:c r="J161" s="1"/>
+      <x:c r="K161" s="1"/>
+      <x:c r="L161" s="1"/>
+      <x:c r="M161" s="2"/>
+      <x:c r="N161" s="1"/>
+      <x:c r="O161" s="1"/>
+      <x:c r="P161" s="2"/>
+      <x:c r="Q161" s="1"/>
+      <x:c r="R161" s="2"/>
+    </x:row>
+    <x:row r="162" spans="1:21">
+      <x:c r="D162" s="1"/>
+      <x:c r="E162" s="2"/>
+      <x:c r="F162" s="2"/>
+      <x:c r="G162" s="2"/>
+      <x:c r="H162" s="2"/>
+      <x:c r="I162" s="1"/>
+      <x:c r="J162" s="1"/>
+      <x:c r="K162" s="1"/>
+      <x:c r="L162" s="1"/>
+      <x:c r="M162" s="2"/>
+      <x:c r="N162" s="1"/>
+      <x:c r="O162" s="1"/>
+      <x:c r="P162" s="2"/>
+      <x:c r="Q162" s="1"/>
+      <x:c r="R162" s="2"/>
+      <x:c r="S162" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="T162" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="U162" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:21">
+      <x:c r="C165" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D165" s="2"/>
+      <x:c r="E165" s="1"/>
+      <x:c r="F165" s="1"/>
+      <x:c r="G165" s="1"/>
+      <x:c r="H165" s="1"/>
+      <x:c r="I165" s="1"/>
+      <x:c r="J165" s="2"/>
+      <x:c r="K165" s="1"/>
+      <x:c r="L165" s="1"/>
+      <x:c r="M165" s="1"/>
+      <x:c r="N165" s="1"/>
+      <x:c r="O165" s="1"/>
+      <x:c r="P165" s="1"/>
+      <x:c r="Q165" s="1"/>
+      <x:c r="R165" s="1"/>
+    </x:row>
+    <x:row r="166" spans="1:21">
+      <x:c r="D166" s="2"/>
+      <x:c r="E166" s="1"/>
+      <x:c r="F166" s="1"/>
+      <x:c r="G166" s="1"/>
+      <x:c r="H166" s="1"/>
+      <x:c r="I166" s="1"/>
+      <x:c r="J166" s="2"/>
+      <x:c r="K166" s="1"/>
+      <x:c r="L166" s="1"/>
+      <x:c r="M166" s="1"/>
+      <x:c r="N166" s="1"/>
+      <x:c r="O166" s="1"/>
+      <x:c r="P166" s="1"/>
+      <x:c r="Q166" s="1"/>
+      <x:c r="R166" s="1"/>
+      <x:c r="S166" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="T166" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="U166" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:21">
+      <x:c r="C169" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D169" s="1"/>
+      <x:c r="E169" s="1"/>
+      <x:c r="F169" s="1"/>
+      <x:c r="G169" s="1"/>
+      <x:c r="H169" s="1"/>
+      <x:c r="I169" s="2"/>
+      <x:c r="J169" s="1"/>
+      <x:c r="K169" s="1"/>
+      <x:c r="L169" s="1"/>
+      <x:c r="M169" s="1"/>
+      <x:c r="N169" s="1"/>
+      <x:c r="O169" s="1"/>
+      <x:c r="P169" s="1"/>
+      <x:c r="Q169" s="1"/>
+      <x:c r="R169" s="1"/>
+    </x:row>
+    <x:row r="170" spans="1:21">
+      <x:c r="D170" s="1"/>
+      <x:c r="E170" s="1"/>
+      <x:c r="F170" s="1"/>
+      <x:c r="G170" s="1"/>
+      <x:c r="H170" s="1"/>
+      <x:c r="I170" s="2"/>
+      <x:c r="J170" s="1"/>
+      <x:c r="K170" s="1"/>
+      <x:c r="L170" s="1"/>
+      <x:c r="M170" s="1"/>
+      <x:c r="N170" s="1"/>
+      <x:c r="O170" s="1"/>
+      <x:c r="P170" s="1"/>
+      <x:c r="Q170" s="1"/>
+      <x:c r="R170" s="1"/>
+      <x:c r="S170" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="T170" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="U170" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:21">
+      <x:c r="C173" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D173" s="1"/>
+      <x:c r="E173" s="1"/>
+      <x:c r="F173" s="2"/>
+      <x:c r="G173" s="1"/>
+      <x:c r="H173" s="1"/>
+      <x:c r="I173" s="2"/>
+      <x:c r="J173" s="1"/>
+      <x:c r="K173" s="1"/>
+      <x:c r="L173" s="1"/>
+      <x:c r="M173" s="1"/>
+      <x:c r="N173" s="2"/>
+      <x:c r="O173" s="1"/>
+      <x:c r="P173" s="2"/>
+      <x:c r="Q173" s="1"/>
+      <x:c r="R173" s="1"/>
+    </x:row>
+    <x:row r="174" spans="1:21">
+      <x:c r="D174" s="1"/>
+      <x:c r="E174" s="1"/>
+      <x:c r="F174" s="2"/>
+      <x:c r="G174" s="1"/>
+      <x:c r="H174" s="1"/>
+      <x:c r="I174" s="2"/>
+      <x:c r="J174" s="1"/>
+      <x:c r="K174" s="1"/>
+      <x:c r="L174" s="1"/>
+      <x:c r="M174" s="1"/>
+      <x:c r="N174" s="2"/>
+      <x:c r="O174" s="1"/>
+      <x:c r="P174" s="2"/>
+      <x:c r="Q174" s="1"/>
+      <x:c r="R174" s="1"/>
+      <x:c r="S174" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="T174" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="U174" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:21">
+      <x:c r="C177" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D177" s="1"/>
+      <x:c r="E177" s="1"/>
+      <x:c r="F177" s="2"/>
+      <x:c r="G177" s="1"/>
+      <x:c r="H177" s="2"/>
+      <x:c r="I177" s="2"/>
+      <x:c r="J177" s="1"/>
+      <x:c r="K177" s="1"/>
+      <x:c r="L177" s="1"/>
+      <x:c r="M177" s="1"/>
+      <x:c r="N177" s="1"/>
+      <x:c r="O177" s="2"/>
+      <x:c r="P177" s="1"/>
+      <x:c r="Q177" s="1"/>
+      <x:c r="R177" s="1"/>
+    </x:row>
+    <x:row r="178" spans="1:21">
+      <x:c r="D178" s="1"/>
+      <x:c r="E178" s="1"/>
+      <x:c r="F178" s="2"/>
+      <x:c r="G178" s="1"/>
+      <x:c r="H178" s="2"/>
+      <x:c r="I178" s="2"/>
+      <x:c r="J178" s="1"/>
+      <x:c r="K178" s="1"/>
+      <x:c r="L178" s="1"/>
+      <x:c r="M178" s="1"/>
+      <x:c r="N178" s="1"/>
+      <x:c r="O178" s="2"/>
+      <x:c r="P178" s="1"/>
+      <x:c r="Q178" s="1"/>
+      <x:c r="R178" s="1"/>
+      <x:c r="S178" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="T178" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="U178" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:21">
+      <x:c r="C181" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D181" s="2"/>
+      <x:c r="E181" s="1"/>
+      <x:c r="F181" s="2"/>
+      <x:c r="G181" s="1"/>
+      <x:c r="H181" s="2"/>
+      <x:c r="I181" s="2"/>
+      <x:c r="J181" s="1"/>
+      <x:c r="K181" s="1"/>
+      <x:c r="L181" s="1"/>
+      <x:c r="M181" s="2"/>
+      <x:c r="N181" s="2"/>
+      <x:c r="O181" s="2"/>
+      <x:c r="P181" s="2"/>
+      <x:c r="Q181" s="1"/>
+      <x:c r="R181" s="2"/>
+    </x:row>
+    <x:row r="182" spans="1:21">
+      <x:c r="D182" s="2"/>
+      <x:c r="E182" s="1"/>
+      <x:c r="F182" s="2"/>
+      <x:c r="G182" s="1"/>
+      <x:c r="H182" s="2"/>
+      <x:c r="I182" s="2"/>
+      <x:c r="J182" s="1"/>
+      <x:c r="K182" s="1"/>
+      <x:c r="L182" s="1"/>
+      <x:c r="M182" s="2"/>
+      <x:c r="N182" s="2"/>
+      <x:c r="O182" s="2"/>
+      <x:c r="P182" s="2"/>
+      <x:c r="Q182" s="1"/>
+      <x:c r="R182" s="2"/>
+      <x:c r="S182" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="T182" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="U182" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:21">
+      <x:c r="D183" s="2"/>
+      <x:c r="E183" s="1"/>
+      <x:c r="F183" s="2"/>
+      <x:c r="G183" s="1"/>
+      <x:c r="H183" s="2"/>
+      <x:c r="I183" s="2"/>
+      <x:c r="J183" s="1"/>
+      <x:c r="K183" s="1"/>
+      <x:c r="L183" s="1"/>
+      <x:c r="M183" s="2"/>
+      <x:c r="N183" s="2"/>
+      <x:c r="O183" s="2"/>
+      <x:c r="P183" s="3"/>
+      <x:c r="Q183" s="3"/>
+      <x:c r="R183" s="3"/>
+      <x:c r="S183" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="T183" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="U183" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:21">
+      <x:c r="C186" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D186" s="2"/>
+      <x:c r="E186" s="2"/>
+      <x:c r="F186" s="1"/>
+      <x:c r="G186" s="1"/>
+      <x:c r="H186" s="1"/>
+      <x:c r="I186" s="1"/>
+      <x:c r="J186" s="2"/>
+      <x:c r="K186" s="1"/>
+      <x:c r="L186" s="1"/>
+      <x:c r="M186" s="1"/>
+      <x:c r="N186" s="1"/>
+      <x:c r="O186" s="1"/>
+      <x:c r="P186" s="2"/>
+      <x:c r="Q186" s="1"/>
+      <x:c r="R186" s="1"/>
+    </x:row>
+    <x:row r="187" spans="1:21">
+      <x:c r="D187" s="2"/>
+      <x:c r="E187" s="2"/>
+      <x:c r="F187" s="1"/>
+      <x:c r="G187" s="1"/>
+      <x:c r="H187" s="1"/>
+      <x:c r="I187" s="1"/>
+      <x:c r="J187" s="2"/>
+      <x:c r="K187" s="1"/>
+      <x:c r="L187" s="1"/>
+      <x:c r="M187" s="1"/>
+      <x:c r="N187" s="1"/>
+      <x:c r="O187" s="1"/>
+      <x:c r="P187" s="2"/>
+      <x:c r="Q187" s="1"/>
+      <x:c r="R187" s="1"/>
+      <x:c r="S187" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="T187" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="U187" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:21">
+      <x:c r="D188" s="2"/>
+      <x:c r="E188" s="2"/>
+      <x:c r="F188" s="1"/>
+      <x:c r="G188" s="1"/>
+      <x:c r="H188" s="1"/>
+      <x:c r="I188" s="1"/>
+      <x:c r="J188" s="3"/>
+      <x:c r="K188" s="1"/>
+      <x:c r="L188" s="1"/>
+      <x:c r="M188" s="1"/>
+      <x:c r="N188" s="1"/>
+      <x:c r="O188" s="1"/>
+      <x:c r="P188" s="2"/>
+      <x:c r="Q188" s="3"/>
+      <x:c r="R188" s="3"/>
+      <x:c r="S188" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="T188" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="U188" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:21">
+      <x:c r="C191" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D191" s="1"/>
+      <x:c r="E191" s="1"/>
+      <x:c r="F191" s="1"/>
+      <x:c r="G191" s="1"/>
+      <x:c r="H191" s="1"/>
+      <x:c r="I191" s="1"/>
+      <x:c r="J191" s="1"/>
+      <x:c r="K191" s="1"/>
+      <x:c r="L191" s="1"/>
+      <x:c r="M191" s="2"/>
+      <x:c r="N191" s="2"/>
+      <x:c r="O191" s="1"/>
+      <x:c r="P191" s="1"/>
+      <x:c r="Q191" s="2"/>
+      <x:c r="R191" s="1"/>
+    </x:row>
+    <x:row r="192" spans="1:21">
+      <x:c r="D192" s="1"/>
+      <x:c r="E192" s="1"/>
+      <x:c r="F192" s="1"/>
+      <x:c r="G192" s="1"/>
+      <x:c r="H192" s="1"/>
+      <x:c r="I192" s="1"/>
+      <x:c r="J192" s="1"/>
+      <x:c r="K192" s="1"/>
+      <x:c r="L192" s="1"/>
+      <x:c r="M192" s="2"/>
+      <x:c r="N192" s="2"/>
+      <x:c r="O192" s="1"/>
+      <x:c r="P192" s="1"/>
+      <x:c r="Q192" s="2"/>
+      <x:c r="R192" s="1"/>
+      <x:c r="S192" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="T192" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="U192" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:21">
+      <x:c r="C195" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="D195" s="2"/>
+      <x:c r="E195" s="1"/>
+      <x:c r="F195" s="1"/>
+      <x:c r="G195" s="1"/>
+      <x:c r="H195" s="2"/>
+      <x:c r="I195" s="1"/>
+      <x:c r="J195" s="1"/>
+      <x:c r="K195" s="1"/>
+      <x:c r="L195" s="1"/>
+      <x:c r="M195" s="1"/>
+      <x:c r="N195" s="1"/>
+      <x:c r="O195" s="1"/>
+      <x:c r="P195" s="1"/>
+      <x:c r="Q195" s="1"/>
+      <x:c r="R195" s="1"/>
+    </x:row>
+    <x:row r="196" spans="1:21">
+      <x:c r="D196" s="2"/>
+      <x:c r="E196" s="1"/>
+      <x:c r="F196" s="1"/>
+      <x:c r="G196" s="1"/>
+      <x:c r="H196" s="2"/>
+      <x:c r="I196" s="1"/>
+      <x:c r="J196" s="1"/>
+      <x:c r="K196" s="1"/>
+      <x:c r="L196" s="1"/>
+      <x:c r="M196" s="1"/>
+      <x:c r="N196" s="1"/>
+      <x:c r="O196" s="1"/>
+      <x:c r="P196" s="1"/>
+      <x:c r="Q196" s="1"/>
+      <x:c r="R196" s="1"/>
+      <x:c r="S196" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="T196" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="U196" s="0" t="s">
+        <x:v>235</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
